--- a/20130038_NguyenThiXuanHoa_Q&A.xlsx
+++ b/20130038_NguyenThiXuanHoa_Q&A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nam4\Tester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A490219-A290-4939-ACA1-E94AC4104A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6C7E58-256E-4DDD-BF5B-41781588E884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B18F6460-7D3A-40DD-BC54-20AD956C16EC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
   <si>
     <t>Status</t>
   </si>
@@ -74,18 +74,12 @@
     <t>Doc Version</t>
   </si>
   <si>
-    <t>Section/screen</t>
-  </si>
-  <si>
     <t>Comment/Question</t>
   </si>
   <si>
     <t>Answer</t>
   </si>
   <si>
-    <t>Lịch sử mua hàng- SRS</t>
-  </si>
-  <si>
     <t>Lịch sử mua hàng</t>
   </si>
   <si>
@@ -104,12 +98,6 @@
     <t>Khi có đơn hàng ở trạng thái "Đợi xác nhận, Đã xác nhận, Đang vận chuyển" khi xem chi tiết đơn hàng có thấy chức năng đánh giá sản phẩm, người mua có thể đánh giá sai về sản phẩm khi chưa nhận được hàng. Giải pháp đề xuất là với các đơn hàng đã được giao thành công thì mới được phép đánh giá sản phẩm. Xin vui lòng xác nhận!</t>
   </si>
   <si>
-    <t>Các đơn hàng ở trạng thái "Đợi xác nhận, Đã xác nhận" ccso được phép chỉnh sửa thông tin đơn hàng ( về số lượng, địa chỉ, sđt,..) khi người mua có nhu cầu chỉnh sửa không?. Đề xuất thêm chức năng yêu cầu chỉnh sửa đơn hàng. Vui lòng xác nhận!</t>
-  </si>
-  <si>
-    <t>Khi giao hàng thành công người dùng có được phép đổi trả hàng không?. Giải pháp đề xuất  thêm chức năng đổi trả sản phẩm cho người mua trong thời gian qui định. Xin vui lòng xác nhận!</t>
-  </si>
-  <si>
     <t>Tôi đã đặt thử đơn hàng và sau đó liên hệ huỷ đơn hàng thành công, tuy nhiên đơn hàng vẫn nằm ở " Đợi xác nhận". Tôi đề xuất khi đơn hàng đó đã xác nhận bị huỷ thì sẽ chuyển nó sang trạng thái "Đã huỷ " và hiển thị lên trang cho người mua thấy. Xin vui lòng xác nhận!</t>
   </si>
   <si>
@@ -132,13 +120,43 @@
   </si>
   <si>
     <t>Tại trang "Lịch sử mua hàng " chỗ số lượng đơn hàng chữ "đơn hàng" đã không được viết hoa chữ cái đầu, nó không tuân theo quy tắc ngôn ngữ. Giải pháp đề xuất là chỉnh chữ "đơn hàng " thành "Đơn hàng" để trông đẹp và chuyên nghiệp hơn. Xin vui lòng xác nhận!</t>
+  </si>
+  <si>
+    <t>Section / screen</t>
+  </si>
+  <si>
+    <t>Website CellphoneS - SRS</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Xuân Hoa</t>
+  </si>
+  <si>
+    <t>18/12/2023</t>
+  </si>
+  <si>
+    <t>Đã xác nhận</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Các đơn hàng ở trạng thái "Đợi xác nhận" được phép chỉnh sửa thông tin đơn hàng ( về số lượng, địa chỉ, sđt,..) khi người mua có nhu cầu chỉnh sửa không?. Đề xuất thêm chức năng yêu cầu chỉnh sửa đơn hàng. Vui lòng xác nhận!</t>
+  </si>
+  <si>
+    <t>Khi giao hàng thành công người dùng có được phép đổi trả hàng không?. Giải pháp đề xuất thêm chức năng đổi trả sản phẩm cho người mua trong thời gian qui định. Xin vui lòng xác nhận!</t>
+  </si>
+  <si>
+    <t>Khi đơn hàng ở trạng thái "Đã xác nhận" thì không thấy chức năng cho huỷ đơn hàng khi người mua có đổi ý định. Giải pháp đề xuất là thêm chức năng huỷ đơn hàng cho các đơn hàng đang ở trạng thái "Đã xác nhận". Xin vui lòng xác nhận!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,8 +172,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,8 +192,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -192,23 +222,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -218,6 +317,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE77C6BB-A5E7-485A-BAF6-CCD64C7658EC}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
@@ -541,362 +661,458 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="57.5546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="19.21875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="7" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="7.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="56.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="27.109375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="16.77734375" style="5" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="71.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="F2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" ht="70.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="10"/>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="1:15" ht="75.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" ht="76.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" ht="100.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" ht="64.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="9" spans="1:15" ht="80.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" ht="85.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="C10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" ht="87.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" ht="80.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="M12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="10"/>
+      <c r="O12" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>